--- a/input/flute-campB-time-table.xlsx
+++ b/input/flute-campB-time-table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0E91B5-7538-412D-90C8-9E01193C8C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95ED5AB-A824-4D8C-A497-7F2D9A3EB006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="5" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
   <si>
     <t>F6</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">F1 </t>
-  </si>
-  <si>
-    <t>Workshop</t>
   </si>
   <si>
     <t>CHUANG, Ivy</t>
@@ -156,9 +153,6 @@
 (Room Shelley)</t>
   </si>
   <si>
-    <t>Welcome</t>
-  </si>
-  <si>
     <t>Karen JONE</t>
   </si>
   <si>
@@ -215,6 +209,19 @@
     <t>After Concert Dinner 
 (Pheasant-Jasmine Room, Mandarin Oriental)</t>
   </si>
+  <si>
+    <t>Welcome
+School Tour
+Fire Drill</t>
+  </si>
+  <si>
+    <t>Yoga Class
+(Room Yoga)</t>
+  </si>
+  <si>
+    <t>Workshop - Warm Up
+(Room Karen)</t>
+  </si>
 </sst>
 </file>
 
@@ -248,20 +255,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +333,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDCEAF8"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1CEEE"/>
+        <bgColor rgb="FFF1CEEE"/>
       </patternFill>
     </fill>
   </fills>
@@ -774,9 +787,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -809,50 +822,38 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -894,36 +895,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,25 +916,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,14 +937,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -986,10 +967,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1022,52 +1009,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,23 +1045,86 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1130,74 +1153,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,12 +1171,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1561,7 +1525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B7FE13-CCB3-4CE9-ABDE-CE6B6C839B6A}">
   <dimension ref="A1:G457"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1571,18 +1537,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="138" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1591,68 +1557,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="140" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1660,55 +1626,55 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1716,101 +1682,101 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="32" t="s">
+      <c r="D19" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="31" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1818,140 +1784,140 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="29" t="s">
+      <c r="C23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
+      <c r="B27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="139" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -1964,10 +1930,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1975,43 +1941,43 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
@@ -3693,20 +3659,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="B15:G18"/>
     <mergeCell ref="B11:B14"/>
@@ -3720,13 +3679,20 @@
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3736,7 +3702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12509948-6509-2643-8FC6-A2E4F28DBF60}">
   <dimension ref="A1:G457"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3748,18 +3716,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B1" s="141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="141" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3770,68 +3738,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="140" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="59" t="s">
+      <c r="C7" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="50" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3839,55 +3807,55 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="53"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="46" t="s">
+      <c r="C11" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="44" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3895,101 +3863,101 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="59" t="s">
+      <c r="C19" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="59" t="s">
+      <c r="G19" s="50" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3997,140 +3965,140 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="52" t="s">
+      <c r="C23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="33"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="33"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="65"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="55"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
+      <c r="B27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -4147,10 +4115,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3"/>
@@ -4162,8 +4130,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -4173,8 +4141,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4184,8 +4152,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4195,8 +4163,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -4206,8 +4174,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4217,8 +4185,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -6746,6 +6714,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C32:C38"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="G23:G26"/>
@@ -6762,24 +6748,6 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6789,7 +6757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F03D46-80E3-7747-9FBA-F432C6EEB3CB}">
   <dimension ref="A1:G457"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6801,13 +6771,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="138" t="s">
+        <v>33</v>
       </c>
       <c r="D1"/>
       <c r="E1"/>
@@ -6816,7 +6786,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -6829,68 +6799,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="140" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="68" t="s">
+      <c r="D7" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="56" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6898,55 +6868,55 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="68" t="s">
+      <c r="D11" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="56" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6954,101 +6924,101 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="87"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="82"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="68" t="s">
+      <c r="D19" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="56" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7056,140 +7026,140 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="52" t="s">
+      <c r="C23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="33"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="33"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="65"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="55"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
+      <c r="B27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -7206,10 +7176,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3"/>
@@ -7221,8 +7191,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -7232,8 +7202,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -7243,8 +7213,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -7254,8 +7224,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -7265,8 +7235,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -7276,8 +7246,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -9805,11 +9775,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="G27:G30"/>
@@ -9819,26 +9804,11 @@
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9846,9 +9816,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294D63B5-80CF-934C-AAC8-14DA9C1B8964}">
-  <dimension ref="A1:G457"/>
+  <dimension ref="A1:J457"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9856,20 +9828,20 @@
     <col min="2" max="7" width="16.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -9878,230 +9850,232 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="140" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="99" t="s">
+      <c r="C7" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="91" t="s">
+      <c r="F7" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="95" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="97"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="97"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="106"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="106" t="s">
+      <c r="C11" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="97"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="97"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="98"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="91" t="s">
+      <c r="C19" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="91" t="s">
+      <c r="E19" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="91" t="s">
+      <c r="F19" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="91" t="s">
+      <c r="G19" s="95" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10109,140 +10083,140 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="107" t="s">
+      <c r="C23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="110"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="45"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="43"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="45"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="111"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="94"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
+      <c r="B27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -10259,10 +10233,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="112" t="s">
+      <c r="B32" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="115" t="s">
+      <c r="C32" s="86" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="5"/>
@@ -10274,8 +10248,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="116"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -10285,8 +10259,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="113"/>
-      <c r="C34" s="116"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="87"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -10296,8 +10270,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="113"/>
-      <c r="C35" s="116"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="87"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -10307,8 +10281,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="113"/>
-      <c r="C36" s="116"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="87"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -10318,8 +10292,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="113"/>
-      <c r="C37" s="116"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="87"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -10329,8 +10303,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="114"/>
-      <c r="C38" s="117"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -12858,17 +12832,20 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="D23:D26"/>
@@ -12878,20 +12855,17 @@
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12901,7 +12875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34864FE3-B2C4-434F-B461-F13004E9A442}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -12912,18 +12888,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -12933,315 +12909,315 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="B3" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="132"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="135"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="120"/>
+      <c r="B7" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="124"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="123"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="127"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="123"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="127"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="123"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="123"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="127"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="123"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="123"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="130"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
+      <c r="B19" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="124"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="127"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="123"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="127"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="124"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="126"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="130"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="136" t="s">
+      <c r="B23" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="136" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="139" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="142" t="s">
+      <c r="C23" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="142" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="22"/>
+      <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="22"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="22"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="22"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="136" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="136" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="139" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="142" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="145"/>
-      <c r="G27" s="37"/>
+      <c r="B27" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="116"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="37"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="137"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="37"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="37"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -13257,10 +13233,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="112" t="s">
+      <c r="B32" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="115" t="s">
+      <c r="C32" s="86" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3"/>
@@ -13271,8 +13247,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="116"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -13281,8 +13257,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="113"/>
-      <c r="C34" s="116"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="87"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -13291,8 +13267,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="113"/>
-      <c r="C35" s="116"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="87"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -13301,8 +13277,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="113"/>
-      <c r="C36" s="116"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="87"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -13311,8 +13287,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="113"/>
-      <c r="C37" s="116"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="87"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -13321,8 +13297,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="114"/>
-      <c r="C38" s="117"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -13345,16 +13321,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
     <mergeCell ref="B15:F18"/>
     <mergeCell ref="B7:F14"/>
     <mergeCell ref="B3:F6"/>
@@ -13363,6 +13329,16 @@
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="E23:E26"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13372,7 +13348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988295E5-493C-3E48-B5AE-D7B2E71B8286}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -13384,346 +13360,346 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="148"/>
+        <v>47</v>
+      </c>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="150" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="131" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="150"/>
+      <c r="B3" s="131"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="131"/>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="150"/>
+      <c r="B5" s="131"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="151" t="s">
-        <v>23</v>
+      <c r="B6" s="133" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="151"/>
+      <c r="B7" s="133"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="151"/>
+      <c r="B8" s="133"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="151"/>
+      <c r="B9" s="133"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="151"/>
+      <c r="B10" s="133"/>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="151"/>
+      <c r="B11" s="133"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="151"/>
+      <c r="B12" s="133"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="151"/>
+      <c r="B13" s="133"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="152" t="s">
-        <v>17</v>
+      <c r="B14" s="134" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="153"/>
+      <c r="B15" s="135"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="153"/>
+      <c r="B16" s="135"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="153"/>
+      <c r="B17" s="135"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="154"/>
+      <c r="B18" s="136"/>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="149" t="s">
-        <v>26</v>
+      <c r="B19" s="17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="151" t="s">
-        <v>18</v>
+      <c r="B20" s="133" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="151"/>
+      <c r="B21" s="133"/>
     </row>
     <row r="22" spans="1:2" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="151"/>
+      <c r="B22" s="133"/>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="151"/>
+      <c r="B23" s="133"/>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="151"/>
+      <c r="B24" s="133"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="151"/>
+      <c r="B25" s="133"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="151" t="s">
-        <v>24</v>
+      <c r="B26" s="133" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="151"/>
+      <c r="B27" s="133"/>
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="151"/>
+      <c r="B28" s="133"/>
     </row>
     <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="155" t="s">
-        <v>22</v>
+      <c r="B29" s="132" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="155"/>
+      <c r="B30" s="132"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="155"/>
+      <c r="B31" s="132"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="150" t="s">
-        <v>21</v>
+      <c r="B32" s="131" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="150"/>
+      <c r="B33" s="131"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="150"/>
+      <c r="B34" s="131"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="150"/>
+      <c r="B35" s="131"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="156" t="s">
-        <v>19</v>
+      <c r="B36" s="137" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="156"/>
+      <c r="B37" s="137"/>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="156"/>
+      <c r="B38" s="137"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="156"/>
+      <c r="B39" s="137"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>0.80208333333332804</v>
       </c>
-      <c r="B40" s="156"/>
+      <c r="B40" s="137"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>0.812499999999994</v>
       </c>
-      <c r="B41" s="150" t="s">
-        <v>50</v>
+      <c r="B41" s="131" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>0.82291666666665997</v>
       </c>
-      <c r="B42" s="150"/>
+      <c r="B42" s="131"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>0.83333333333332604</v>
       </c>
-      <c r="B43" s="150"/>
+      <c r="B43" s="131"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>0.84374999999999201</v>
       </c>
-      <c r="B44" s="155" t="s">
-        <v>51</v>
+      <c r="B44" s="132" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>0.85416666666665797</v>
       </c>
-      <c r="B45" s="155"/>
+      <c r="B45" s="132"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>0.86458333333332404</v>
       </c>
-      <c r="B46" s="155"/>
+      <c r="B46" s="132"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>0.87499999999999001</v>
       </c>
-      <c r="B47" s="155"/>
+      <c r="B47" s="132"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>0.88541666666665597</v>
       </c>
-      <c r="B48" s="155"/>
+      <c r="B48" s="132"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>0.89583333333332205</v>
       </c>
-      <c r="B49" s="155"/>
+      <c r="B49" s="132"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>0.90624999999998801</v>
       </c>
-      <c r="B50" s="155"/>
+      <c r="B50" s="132"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B51" s="148"/>
+      <c r="B51" s="16"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B52" s="148"/>
+      <c r="B52" s="16"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B53" s="148"/>
+      <c r="B53" s="16"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B54" s="148"/>
+      <c r="B54" s="16"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B55" s="148"/>
+      <c r="B55" s="16"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B56" s="148"/>
+      <c r="B56" s="16"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B57" s="148"/>
+      <c r="B57" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/input/flute-campB-time-table.xlsx
+++ b/input/flute-campB-time-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C839A63-DD74-4D09-B228-FFA3C71E34B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50074606-874D-4B55-8919-7880DEAEBD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="5" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="24196" windowHeight="13875" firstSheet="1" activeTab="4" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="54">
   <si>
     <t>F6</t>
   </si>
@@ -162,18 +162,6 @@
 (Room Liya)</t>
   </si>
   <si>
-    <t>F3 Private Lesson with Karen JONE &amp; pianisit</t>
-  </si>
-  <si>
-    <t>F6 Private Lesson with Karen JONE &amp; pianisit</t>
-  </si>
-  <si>
-    <t>F4 Private Lesson with Karen JONE &amp; pianisit</t>
-  </si>
-  <si>
-    <t>F1 Private Lesson with Karen JONE &amp; pianisit</t>
-  </si>
-  <si>
     <t>F2  Private Lesson with Karen JONES &amp; pianist</t>
   </si>
   <si>
@@ -213,11 +201,32 @@
 (Room Yoga)</t>
   </si>
   <si>
-    <t>Workshop - Warm Up
+    <t>Ivy CHUANG</t>
+  </si>
+  <si>
+    <t>Warm Up Workshop
 (Room Karen)</t>
   </si>
   <si>
-    <t>Ivy CHUANG</t>
+    <t>F6 Private Lesson with Karen JONES &amp; pianisit</t>
+  </si>
+  <si>
+    <t>F1 Private Lesson with Karen JONES &amp; pianisit</t>
+  </si>
+  <si>
+    <t>F4 Private Lesson with Karen JONES &amp; pianisit</t>
+  </si>
+  <si>
+    <t>F3 Private Lesson with Karen JONES &amp; pianisit</t>
+  </si>
+  <si>
+    <t>Group 4, 7, 8, 9  Group Activity
+(Room Group Activity)</t>
+  </si>
+  <si>
+    <t>Group 1, 2, 3, 5, 6 
+Group Activity
+(Room Group Activity)</t>
   </si>
 </sst>
 </file>
@@ -824,26 +833,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -876,6 +894,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,36 +904,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,19 +926,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,6 +947,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -955,15 +961,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -978,6 +975,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1010,52 +1019,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,23 +1055,89 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1117,45 +1165,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1533,13 +1542,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1553,68 +1562,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1624,8 +1633,8 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
     </row>
@@ -1635,8 +1644,8 @@
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
     </row>
@@ -1646,8 +1655,8 @@
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
@@ -1655,22 +1664,22 @@
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="45" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1680,8 +1689,8 @@
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="40"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
     </row>
@@ -1691,8 +1700,8 @@
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="40"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
     </row>
@@ -1702,8 +1711,8 @@
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="40"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
     </row>
@@ -1711,68 +1720,68 @@
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="31" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1782,8 +1791,8 @@
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
     </row>
@@ -1793,8 +1802,8 @@
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
     </row>
@@ -1804,8 +1813,8 @@
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
     </row>
@@ -1813,22 +1822,22 @@
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="43" t="s">
+      <c r="D23" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
@@ -1836,9 +1845,9 @@
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1847,9 +1856,9 @@
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1858,29 +1867,29 @@
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="43" t="s">
+      <c r="D27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
@@ -1888,8 +1897,8 @@
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="44"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
     </row>
@@ -1899,8 +1908,8 @@
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="44"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
     </row>
@@ -1910,8 +1919,8 @@
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="45"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
     </row>
@@ -1926,10 +1935,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3655,20 +3664,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="B15:G18"/>
     <mergeCell ref="B11:B14"/>
@@ -3682,13 +3684,20 @@
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3699,7 +3708,7 @@
   <dimension ref="A1:G457"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="C19" sqref="C19:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3712,13 +3721,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3734,68 +3743,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="52" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3803,55 +3812,55 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="41" t="s">
+      <c r="C11" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="45" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3859,101 +3868,101 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="52" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3961,140 +3970,140 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="50" t="s">
+      <c r="D23" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="28"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="28"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="57"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="50" t="s">
+      <c r="D27" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -4111,10 +4120,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3"/>
@@ -4126,8 +4135,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -4137,8 +4146,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4148,8 +4157,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4159,8 +4168,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -4170,8 +4179,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4181,8 +4190,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -6710,6 +6719,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C32:C38"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="G23:G26"/>
@@ -6726,24 +6753,6 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6754,7 +6763,7 @@
   <dimension ref="A1:G457"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="B3" sqref="B3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -6767,13 +6776,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D1"/>
       <c r="E1"/>
@@ -6795,47 +6804,47 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -6844,19 +6853,19 @@
       <c r="B7" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="58" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6865,22 +6874,22 @@
         <v>0.46875</v>
       </c>
       <c r="B8" s="76"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
       <c r="B9" s="76"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -6888,10 +6897,10 @@
       </c>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -6900,19 +6909,19 @@
       <c r="B11" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="58" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6921,22 +6930,22 @@
         <v>0.51041666666666696</v>
       </c>
       <c r="B12" s="76"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
       <c r="B13" s="76"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -6944,10 +6953,10 @@
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="78"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -6966,23 +6975,23 @@
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
@@ -7002,19 +7011,19 @@
       <c r="B19" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="58" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7023,22 +7032,22 @@
         <v>0.59375</v>
       </c>
       <c r="B20" s="76"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
       <c r="B21" s="76"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -7046,116 +7055,116 @@
       </c>
       <c r="B22" s="77"/>
       <c r="C22" s="78"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="50" t="s">
+      <c r="D23" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="28"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="28"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="57"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="50" t="s">
+      <c r="D27" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -7172,10 +7181,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3"/>
@@ -7187,8 +7196,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -7198,8 +7207,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -7209,8 +7218,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -7220,8 +7229,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -7231,8 +7240,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -7242,8 +7251,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -9771,11 +9780,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="G27:G30"/>
@@ -9785,26 +9809,11 @@
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9815,7 +9824,7 @@
   <dimension ref="A1:J457"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="C19" sqref="C19:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -9826,13 +9835,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -9850,68 +9859,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="93" t="s">
+      <c r="C7" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="97" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9919,55 +9928,55 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="100" t="s">
+      <c r="C11" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9975,47 +9984,47 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
     </row>
@@ -10023,55 +10032,55 @@
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="85" t="s">
+      <c r="C19" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="85" t="s">
+      <c r="F19" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="85" t="s">
+      <c r="G19" s="97" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10079,140 +10088,140 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="101" t="s">
+      <c r="D23" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="101" t="s">
+      <c r="F23" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="104"/>
+      <c r="G23" s="95"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="40"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="40"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="105"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="96"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="101" t="s">
+      <c r="D27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -10229,10 +10238,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="106" t="s">
+      <c r="B32" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="88" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="5"/>
@@ -10244,8 +10253,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="110"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -10255,8 +10264,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="110"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -10266,8 +10275,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="110"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -10277,8 +10286,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="110"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="89"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -10288,8 +10297,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="110"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="89"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -10299,8 +10308,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="108"/>
-      <c r="C38" s="111"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -12828,17 +12837,20 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="D23:D26"/>
@@ -12848,20 +12860,17 @@
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12871,8 +12880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34864FE3-B2C4-434F-B461-F13004E9A442}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -12884,13 +12893,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -12905,315 +12914,315 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="114"/>
+      <c r="B7" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="127"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="117"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="130"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="117"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="130"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="117"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="130"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="117"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="130"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="117"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="117"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="133"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
+      <c r="B19" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="127"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="130"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="130"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="120"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="133"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="124" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="127" t="s">
+      <c r="D23" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="127" t="s">
+      <c r="F23" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="130"/>
+      <c r="G23" s="121"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="130"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="121"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="130"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="121"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="130"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="121"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="124" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="127" t="s">
+      <c r="D27" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="131"/>
-      <c r="G27" s="32"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="32"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="32"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="32"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -13229,10 +13238,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="106" t="s">
+      <c r="B32" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="88" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3"/>
@@ -13243,8 +13252,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="110"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -13253,8 +13262,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="110"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -13263,8 +13272,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="110"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -13273,8 +13282,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="110"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="89"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -13283,8 +13292,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="110"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="89"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -13293,8 +13302,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="108"/>
-      <c r="C38" s="111"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -13317,16 +13326,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
     <mergeCell ref="B15:F18"/>
     <mergeCell ref="B7:F14"/>
     <mergeCell ref="B3:F6"/>
@@ -13335,6 +13334,16 @@
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="E23:E26"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13342,10 +13351,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988295E5-493C-3E48-B5AE-D7B2E71B8286}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -13355,326 +13364,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B1" s="134" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B2" s="134"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="B3" s="134"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="B4" s="134"/>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="B5" s="134"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.44791666666666702</v>
+      </c>
+      <c r="B5" s="136" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>0.44791666666666702</v>
-      </c>
-      <c r="B6" s="136" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6" s="136"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>0.45833333333333298</v>
+        <v>0.46875</v>
       </c>
       <c r="B7" s="136"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>0.46875</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="B8" s="136"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>0.47916666666666702</v>
+        <v>0.48958333333333298</v>
       </c>
       <c r="B9" s="136"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>0.48958333333333298</v>
+        <v>0.5</v>
       </c>
       <c r="B10" s="136"/>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>0.5</v>
+        <v>0.51041666666666696</v>
       </c>
       <c r="B11" s="136"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>0.51041666666666696</v>
+        <v>0.52083333333333304</v>
       </c>
       <c r="B12" s="136"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="B13" s="136"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.53125</v>
+      </c>
+      <c r="B13" s="137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="B14" s="137" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B14" s="138"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>0.54166666666666696</v>
+        <v>0.55208333333333304</v>
       </c>
       <c r="B15" s="138"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>0.55208333333333304</v>
+        <v>0.5625</v>
       </c>
       <c r="B16" s="138"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="B17" s="138"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="B17" s="139"/>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>0.57291666666666696</v>
-      </c>
-      <c r="B18" s="139"/>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>24</v>
+        <v>0.59375</v>
+      </c>
+      <c r="B19" s="136" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>0.59375</v>
-      </c>
-      <c r="B20" s="136" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B20" s="136"/>
+    </row>
+    <row r="21" spans="1:2" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>0.60416666666666696</v>
+        <v>0.61458333333333304</v>
       </c>
       <c r="B21" s="136"/>
     </row>
-    <row r="22" spans="1:2" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>0.61458333333333304</v>
+        <v>0.625</v>
       </c>
       <c r="B22" s="136"/>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>0.625</v>
+        <v>0.63541666666666696</v>
       </c>
       <c r="B23" s="136"/>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>0.63541666666666696</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="B24" s="136"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="B25" s="136"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.65625</v>
+      </c>
+      <c r="B25" s="136" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>0.65625</v>
-      </c>
-      <c r="B26" s="136" t="s">
-        <v>22</v>
-      </c>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B26" s="136"/>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>0.66666666666666696</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="B27" s="136"/>
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>0.67708333333333304</v>
-      </c>
-      <c r="B28" s="136"/>
-    </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.6875</v>
+      </c>
+      <c r="B28" s="135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="B29" s="135" t="s">
-        <v>20</v>
-      </c>
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="B29" s="135"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>0.69791666666666696</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="B30" s="135"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B31" s="135"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.718749999999999</v>
+      </c>
+      <c r="B31" s="134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>0.718749999999999</v>
-      </c>
-      <c r="B32" s="134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.72916666666666496</v>
+      </c>
+      <c r="B32" s="134"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>0.72916666666666496</v>
+        <v>0.73958333333333104</v>
       </c>
       <c r="B33" s="134"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>0.73958333333333104</v>
+        <v>0.749999999999997</v>
       </c>
       <c r="B34" s="134"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>0.749999999999997</v>
-      </c>
-      <c r="B35" s="134"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.76041666666666297</v>
+      </c>
+      <c r="B35" s="140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>0.76041666666666297</v>
-      </c>
-      <c r="B36" s="140" t="s">
-        <v>17</v>
-      </c>
+        <v>0.77083333333332904</v>
+      </c>
+      <c r="B36" s="140"/>
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>0.77083333333332904</v>
+        <v>0.781249999999996</v>
       </c>
       <c r="B37" s="140"/>
     </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>0.781249999999996</v>
+        <v>0.79166666666666197</v>
       </c>
       <c r="B38" s="140"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>0.79166666666666197</v>
+        <v>0.80208333333332804</v>
       </c>
       <c r="B39" s="140"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>0.80208333333332804</v>
-      </c>
-      <c r="B40" s="140"/>
+        <v>0.812499999999994</v>
+      </c>
+      <c r="B40" s="134" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>0.812499999999994</v>
-      </c>
-      <c r="B41" s="134" t="s">
-        <v>46</v>
-      </c>
+        <v>0.82291666666665997</v>
+      </c>
+      <c r="B41" s="134"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>0.82291666666665997</v>
+        <v>0.83333333333332604</v>
       </c>
       <c r="B42" s="134"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
-        <v>0.83333333333332604</v>
-      </c>
-      <c r="B43" s="134"/>
+        <v>0.84374999999999201</v>
+      </c>
+      <c r="B43" s="135" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
-        <v>0.84374999999999201</v>
-      </c>
-      <c r="B44" s="135" t="s">
-        <v>47</v>
-      </c>
+        <v>0.85416666666665797</v>
+      </c>
+      <c r="B44" s="135"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
-        <v>0.85416666666665797</v>
+        <v>0.86458333333332404</v>
       </c>
       <c r="B45" s="135"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
-        <v>0.86458333333332404</v>
+        <v>0.87499999999999001</v>
       </c>
       <c r="B46" s="135"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
-        <v>0.87499999999999001</v>
+        <v>0.88541666666665597</v>
       </c>
       <c r="B47" s="135"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
-        <v>0.88541666666665597</v>
+        <v>0.89583333333332205</v>
       </c>
       <c r="B48" s="135"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
-        <v>0.89583333333332205</v>
+        <v>0.90624999999998801</v>
       </c>
       <c r="B49" s="135"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="1">
-        <v>0.90624999999998801</v>
-      </c>
-      <c r="B50" s="135"/>
+      <c r="B50" s="16"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B51" s="16"/>
@@ -13694,21 +13700,18 @@
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B56" s="16"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B57" s="16"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/flute-campB-time-table.xlsx
+++ b/input/flute-campB-time-table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapmi\Desktop\summer-camp-time-table\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50074606-874D-4B55-8919-7880DEAEBD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744CBA63-D9E4-4DFA-992F-9A2A094CF2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="24196" windowHeight="13875" firstSheet="1" activeTab="4" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
+    <workbookView xWindow="0" yWindow="315" windowWidth="14970" windowHeight="11273" firstSheet="1" activeTab="5" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="5" r:id="rId1"/>
@@ -833,35 +833,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -894,7 +885,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -904,20 +894,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -926,16 +932,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,12 +956,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -961,6 +964,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -975,18 +987,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1019,6 +1019,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1036,108 +1099,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1165,6 +1126,45 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1562,68 +1562,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1633,8 +1633,8 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
     </row>
@@ -1644,8 +1644,8 @@
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
     </row>
@@ -1655,8 +1655,8 @@
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
@@ -1664,22 +1664,22 @@
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1689,8 +1689,8 @@
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="44"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
     </row>
@@ -1700,8 +1700,8 @@
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="44"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
     </row>
@@ -1711,8 +1711,8 @@
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="44"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
     </row>
@@ -1720,68 +1720,68 @@
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="19" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1791,8 +1791,8 @@
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
     </row>
@@ -1802,8 +1802,8 @@
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
     </row>
@@ -1813,8 +1813,8 @@
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
     </row>
@@ -1822,22 +1822,22 @@
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
@@ -1845,9 +1845,9 @@
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1856,9 +1856,9 @@
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1867,29 +1867,29 @@
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
@@ -1897,8 +1897,8 @@
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="27"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
     </row>
@@ -1908,8 +1908,8 @@
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="27"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
     </row>
@@ -1919,8 +1919,8 @@
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="28"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
     </row>
@@ -1935,10 +1935,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="51" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3664,13 +3664,20 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="B15:G18"/>
     <mergeCell ref="B11:B14"/>
@@ -3684,20 +3691,13 @@
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3743,68 +3743,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="54" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3812,55 +3812,55 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="41" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3868,101 +3868,101 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="54" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3970,140 +3970,140 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="50"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="57"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -4120,10 +4120,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3"/>
@@ -4135,8 +4135,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -4146,8 +4146,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4157,8 +4157,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4168,8 +4168,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -4179,8 +4179,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4190,8 +4190,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -6719,24 +6719,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C32:C38"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="G23:G26"/>
@@ -6753,6 +6735,24 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6804,47 +6804,47 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -6853,19 +6853,19 @@
       <c r="B7" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="61" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6874,22 +6874,22 @@
         <v>0.46875</v>
       </c>
       <c r="B8" s="76"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
       <c r="B9" s="76"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -6897,10 +6897,10 @@
       </c>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -6909,19 +6909,19 @@
       <c r="B11" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="61" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6930,22 +6930,22 @@
         <v>0.51041666666666696</v>
       </c>
       <c r="B12" s="76"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
       <c r="B13" s="76"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -6953,10 +6953,10 @@
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="78"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -6975,23 +6975,23 @@
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
@@ -7011,19 +7011,19 @@
       <c r="B19" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="61" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7032,22 +7032,22 @@
         <v>0.59375</v>
       </c>
       <c r="B20" s="76"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
       <c r="B21" s="76"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -7055,116 +7055,116 @@
       </c>
       <c r="B22" s="77"/>
       <c r="C22" s="78"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="50"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="57"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -7181,10 +7181,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3"/>
@@ -7196,8 +7196,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -7207,8 +7207,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -7218,8 +7218,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -7229,8 +7229,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -7240,8 +7240,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -7251,8 +7251,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -9780,26 +9780,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="G27:G30"/>
@@ -9809,11 +9794,26 @@
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9859,68 +9859,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="85" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9928,55 +9928,55 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="24" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9984,47 +9984,47 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
     </row>
@@ -10032,55 +10032,55 @@
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="97" t="s">
+      <c r="E19" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="97" t="s">
+      <c r="F19" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="97" t="s">
+      <c r="G19" s="85" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10088,140 +10088,140 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="92" t="s">
+      <c r="E23" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="92" t="s">
+      <c r="F23" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="95"/>
+      <c r="G23" s="104"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="44"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="96"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="105"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="92" t="s">
+      <c r="E27" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -10238,10 +10238,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="109" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="5"/>
@@ -10253,8 +10253,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="89"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="110"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -10264,8 +10264,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="89"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="110"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -10275,8 +10275,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="89"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="110"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -10286,8 +10286,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="89"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="110"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -10297,8 +10297,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="89"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="110"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -10308,8 +10308,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="90"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -12837,20 +12837,17 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="D23:D26"/>
@@ -12860,17 +12857,20 @@
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12880,7 +12880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34864FE3-B2C4-434F-B461-F13004E9A442}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D27" sqref="D27:D30"/>
     </sheetView>
   </sheetViews>
@@ -12914,315 +12914,315 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="127"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="114"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="130"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="130"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="117"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="117"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="130"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="117"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="117"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="117"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="133"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="127"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="128"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="130"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="117"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="128"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="130"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="117"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="131"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="133"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="120"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="122" t="s">
+      <c r="C23" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="112" t="s">
+      <c r="D23" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="115" t="s">
+      <c r="E23" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="115" t="s">
+      <c r="F23" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="121"/>
+      <c r="G23" s="130"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="121"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="130"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="121"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="130"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="121"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="130"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="112" t="s">
+      <c r="D27" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="115" t="s">
+      <c r="E27" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="118"/>
-      <c r="G27" s="35"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="35"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="35"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="35"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -13238,10 +13238,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="109" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3"/>
@@ -13252,8 +13252,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="89"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="110"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -13262,8 +13262,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="89"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="110"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -13272,8 +13272,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="89"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="110"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -13282,8 +13282,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="89"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="110"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -13292,8 +13292,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="89"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="110"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -13302,8 +13302,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="90"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -13326,6 +13326,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
     <mergeCell ref="B15:F18"/>
     <mergeCell ref="B7:F14"/>
     <mergeCell ref="B3:F6"/>
@@ -13334,16 +13344,6 @@
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="E23:E26"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13351,10 +13351,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988295E5-493C-3E48-B5AE-D7B2E71B8286}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -13367,43 +13367,42 @@
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="134" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B2" s="134"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>0.42708333333333331</v>
       </c>
       <c r="B3" s="134"/>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.4375</v>
       </c>
       <c r="B4" s="134"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B5" s="136" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="134"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="136"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="136" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.46875</v>
       </c>
@@ -13421,13 +13420,13 @@
       </c>
       <c r="B9" s="136"/>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.5</v>
       </c>
       <c r="B10" s="136"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.51041666666666696</v>
       </c>
@@ -13443,17 +13442,17 @@
       <c r="A13" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="137" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="136"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B14" s="138"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.55208333333333304</v>
       </c>
@@ -13469,37 +13468,37 @@
       <c r="A17" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B17" s="139"/>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="138"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="B18" s="139"/>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B19" s="136" t="s">
-        <v>16</v>
+      <c r="B19" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B20" s="136"/>
-    </row>
-    <row r="21" spans="1:2" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.61458333333333304</v>
       </c>
       <c r="B21" s="136"/>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.625</v>
       </c>
@@ -13511,7 +13510,7 @@
       </c>
       <c r="B23" s="136"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.64583333333333304</v>
       </c>
@@ -13521,15 +13520,15 @@
       <c r="A25" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B25" s="136" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="136"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B26" s="136"/>
+      <c r="B26" s="136" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
@@ -13541,15 +13540,15 @@
       <c r="A28" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B28" s="135" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B28" s="136"/>
+    </row>
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B29" s="135"/>
+      <c r="B29" s="135" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
@@ -13561,17 +13560,17 @@
       <c r="A31" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B31" s="134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="135"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B32" s="134"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B32" s="134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>0.73958333333333104</v>
       </c>
@@ -13587,15 +13586,15 @@
       <c r="A35" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B35" s="140" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="134"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B36" s="140"/>
+      <c r="B36" s="140" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
@@ -13603,7 +13602,7 @@
       </c>
       <c r="B37" s="140"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>0.79166666666666197</v>
       </c>
@@ -13619,15 +13618,15 @@
       <c r="A40" s="1">
         <v>0.812499999999994</v>
       </c>
-      <c r="B40" s="134" t="s">
-        <v>42</v>
-      </c>
+      <c r="B40" s="140"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>0.82291666666665997</v>
       </c>
-      <c r="B41" s="134"/>
+      <c r="B41" s="134" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
@@ -13639,15 +13638,15 @@
       <c r="A43" s="1">
         <v>0.84374999999999201</v>
       </c>
-      <c r="B43" s="135" t="s">
-        <v>43</v>
-      </c>
+      <c r="B43" s="134"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>0.85416666666665797</v>
       </c>
-      <c r="B44" s="135"/>
+      <c r="B44" s="135" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
@@ -13680,7 +13679,10 @@
       <c r="B49" s="135"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B50" s="16"/>
+      <c r="A50" s="1">
+        <v>0.91666666666665397</v>
+      </c>
+      <c r="B50" s="135"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B51" s="16"/>
@@ -13700,18 +13702,21 @@
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B56" s="16"/>
     </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B57" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/flute-campB-time-table.xlsx
+++ b/input/flute-campB-time-table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapmi\Desktop\summer-camp-time-table\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744CBA63-D9E4-4DFA-992F-9A2A094CF2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F9B498-4F8A-4A50-9A2F-F4CB082345F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="315" windowWidth="14970" windowHeight="11273" firstSheet="1" activeTab="5" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="1" activeTab="1" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="5" r:id="rId1"/>
@@ -208,18 +208,6 @@
 (Room Karen)</t>
   </si>
   <si>
-    <t>F6 Private Lesson with Karen JONES &amp; pianisit</t>
-  </si>
-  <si>
-    <t>F1 Private Lesson with Karen JONES &amp; pianisit</t>
-  </si>
-  <si>
-    <t>F4 Private Lesson with Karen JONES &amp; pianisit</t>
-  </si>
-  <si>
-    <t>F3 Private Lesson with Karen JONES &amp; pianisit</t>
-  </si>
-  <si>
     <t>Group 4, 7, 8, 9  Group Activity
 (Room Group Activity)</t>
   </si>
@@ -227,6 +215,18 @@
     <t>Group 1, 2, 3, 5, 6 
 Group Activity
 (Room Group Activity)</t>
+  </si>
+  <si>
+    <t>F3 Private Lesson with Karen JONES &amp; pianist</t>
+  </si>
+  <si>
+    <t>F4 Private Lesson with Karen JONES &amp; pianist</t>
+  </si>
+  <si>
+    <t>F6 Private Lesson with Karen JONES &amp; pianist</t>
+  </si>
+  <si>
+    <t>F1 Private Lesson with Karen JONES &amp; pianist</t>
   </si>
 </sst>
 </file>
@@ -795,7 +795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -828,31 +828,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -885,6 +893,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,36 +903,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,19 +925,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -956,6 +946,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -964,15 +960,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -987,6 +974,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1019,52 +1018,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,23 +1054,89 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1127,64 +1165,25 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1544,10 +1543,10 @@
       <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1562,68 +1561,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="30" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1631,55 +1630,55 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1687,101 +1686,101 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="30" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1789,140 +1788,140 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="20"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="20"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="21"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -1935,10 +1934,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1946,43 +1945,43 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
@@ -3664,20 +3663,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="B15:G18"/>
     <mergeCell ref="B11:B14"/>
@@ -3691,13 +3683,20 @@
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3707,7 +3706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12509948-6509-2643-8FC6-A2E4F28DBF60}">
   <dimension ref="A1:G457"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C19" sqref="C19:C22"/>
     </sheetView>
   </sheetViews>
@@ -3723,10 +3722,10 @@
       <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3743,68 +3742,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="51" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3812,55 +3811,55 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="41" t="s">
+      <c r="C11" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="44" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3868,101 +3867,101 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="51" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3970,140 +3969,140 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="28"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="28"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="56"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -4120,10 +4119,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3"/>
@@ -4135,8 +4134,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -4146,8 +4145,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4157,8 +4156,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4168,8 +4167,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -4179,8 +4178,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4190,8 +4189,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -6719,6 +6718,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C32:C38"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="G23:G26"/>
@@ -6735,24 +6752,6 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6778,10 +6777,10 @@
       <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D1"/>
@@ -6804,68 +6803,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="57" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6873,55 +6872,55 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="57" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6929,101 +6928,101 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="57" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7031,140 +7030,140 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="28"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="28"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="56"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -7181,10 +7180,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3"/>
@@ -7196,8 +7195,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -7207,8 +7206,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -7218,8 +7217,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -7229,8 +7228,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -7240,8 +7239,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -7251,8 +7250,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -9780,11 +9779,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="G27:G30"/>
@@ -9794,26 +9808,11 @@
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9824,7 +9823,7 @@
   <dimension ref="A1:J457"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C22"/>
+      <selection activeCell="C11" sqref="C11:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -9837,10 +9836,10 @@
       <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9859,68 +9858,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="93" t="s">
+      <c r="C7" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="96" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9928,55 +9927,55 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="100" t="s">
+      <c r="C11" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="22" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9984,103 +9983,103 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="85" t="s">
+      <c r="F19" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="85" t="s">
+      <c r="G19" s="96" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10088,140 +10087,140 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="101" t="s">
+      <c r="E23" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="101" t="s">
+      <c r="F23" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="104"/>
+      <c r="G23" s="94"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="40"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="43"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="40"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="105"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="95"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="101" t="s">
+      <c r="E27" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -10238,10 +10237,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="106" t="s">
+      <c r="B32" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="87" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="5"/>
@@ -10253,8 +10252,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="110"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -10264,8 +10263,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="110"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -10275,8 +10274,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="110"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="88"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -10286,8 +10285,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="110"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -10297,8 +10296,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="110"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="88"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -10308,8 +10307,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="108"/>
-      <c r="C38" s="111"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -12837,17 +12836,20 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="D23:D26"/>
@@ -12857,20 +12859,17 @@
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12895,10 +12894,10 @@
       <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12914,209 +12913,209 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="114"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="126"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="117"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="129"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="117"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="117"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="129"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="117"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="129"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="117"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="117"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="129"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="120"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="132"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
@@ -13128,16 +13127,16 @@
       <c r="C23" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="124" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="127" t="s">
+      <c r="D23" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="127" t="s">
+      <c r="F23" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="130"/>
+      <c r="G23" s="120"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
@@ -13145,10 +13144,10 @@
       </c>
       <c r="B24" s="122"/>
       <c r="C24" s="122"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="130"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="120"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
@@ -13156,10 +13155,10 @@
       </c>
       <c r="B25" s="122"/>
       <c r="C25" s="122"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="130"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="120"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
@@ -13167,10 +13166,10 @@
       </c>
       <c r="B26" s="123"/>
       <c r="C26" s="123"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="130"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="120"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
@@ -13182,14 +13181,14 @@
       <c r="C27" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="124" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="127" t="s">
+      <c r="D27" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="131"/>
-      <c r="G27" s="32"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
@@ -13197,10 +13196,10 @@
       </c>
       <c r="B28" s="122"/>
       <c r="C28" s="122"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="32"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
@@ -13208,10 +13207,10 @@
       </c>
       <c r="B29" s="122"/>
       <c r="C29" s="122"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="32"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
@@ -13219,10 +13218,10 @@
       </c>
       <c r="B30" s="123"/>
       <c r="C30" s="123"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="32"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -13238,10 +13237,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="106" t="s">
+      <c r="B32" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="87" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3"/>
@@ -13252,8 +13251,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="110"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -13262,8 +13261,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="110"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -13272,8 +13271,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="110"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="88"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -13282,8 +13281,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="110"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -13292,8 +13291,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="110"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="88"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -13302,8 +13301,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="108"/>
-      <c r="C38" s="111"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -13326,16 +13325,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
     <mergeCell ref="B15:F18"/>
     <mergeCell ref="B7:F14"/>
     <mergeCell ref="B3:F6"/>
@@ -13344,6 +13333,16 @@
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="E23:E26"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13351,10 +13350,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988295E5-493C-3E48-B5AE-D7B2E71B8286}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A13" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -13367,34 +13366,35 @@
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="133" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B3" s="134"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="133"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B4" s="134"/>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="133"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B5" s="134"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="133"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.45833333333333298</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.46875</v>
       </c>
@@ -13420,13 +13420,13 @@
       </c>
       <c r="B9" s="136"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.5</v>
       </c>
       <c r="B10" s="136"/>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.51041666666666696</v>
       </c>
@@ -13444,7 +13444,7 @@
       </c>
       <c r="B13" s="136"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.54166666666666696</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.55208333333333304</v>
       </c>
@@ -13470,7 +13470,7 @@
       </c>
       <c r="B17" s="138"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.58333333333333304</v>
       </c>
@@ -13492,13 +13492,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.61458333333333304</v>
       </c>
       <c r="B21" s="136"/>
     </row>
-    <row r="22" spans="1:2" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.625</v>
       </c>
@@ -13510,7 +13510,7 @@
       </c>
       <c r="B23" s="136"/>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.64583333333333304</v>
       </c>
@@ -13522,7 +13522,7 @@
       </c>
       <c r="B25" s="136"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.66666666666666696</v>
       </c>
@@ -13542,7 +13542,7 @@
       </c>
       <c r="B28" s="136"/>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.69791666666666696</v>
       </c>
@@ -13562,37 +13562,37 @@
       </c>
       <c r="B31" s="135"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B32" s="134" t="s">
+      <c r="B32" s="133" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B33" s="134"/>
+      <c r="B33" s="133"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B34" s="134"/>
+      <c r="B34" s="133"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B35" s="134"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="133"/>
+    </row>
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B36" s="140" t="s">
+      <c r="B36" s="134" t="s">
         <v>17</v>
       </c>
     </row>
@@ -13600,31 +13600,31 @@
       <c r="A37" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B37" s="140"/>
-    </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="134"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B38" s="140"/>
+      <c r="B38" s="134"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>0.80208333333332804</v>
       </c>
-      <c r="B39" s="140"/>
+      <c r="B39" s="134"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>0.812499999999994</v>
       </c>
-      <c r="B40" s="140"/>
+      <c r="B40" s="134"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>0.82291666666665997</v>
       </c>
-      <c r="B41" s="134" t="s">
+      <c r="B41" s="133" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13632,13 +13632,13 @@
       <c r="A42" s="1">
         <v>0.83333333333332604</v>
       </c>
-      <c r="B42" s="134"/>
+      <c r="B42" s="133"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>0.84374999999999201</v>
       </c>
-      <c r="B43" s="134"/>
+      <c r="B43" s="133"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
@@ -13684,29 +13684,10 @@
       </c>
       <c r="B50" s="135"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B51" s="16"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B52" s="16"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B53" s="16"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B54" s="16"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B55" s="16"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B56" s="16"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B57" s="16"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B50"/>
     <mergeCell ref="B2:B5"/>
@@ -13715,8 +13696,6 @@
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/flute-campB-time-table.xlsx
+++ b/input/flute-campB-time-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F9B498-4F8A-4A50-9A2F-F4CB082345F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD3A0AD-2FD9-464C-99DF-FA431D26D831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="1" activeTab="1" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="1" activeTab="2" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="5" r:id="rId1"/>
@@ -168,10 +168,6 @@
     <t>F5 Private Lesson with Karen JONES &amp; pianist</t>
   </si>
   <si>
-    <t>Flute MasterClass
-(Room Karen)</t>
-  </si>
-  <si>
     <t>Group 1, 2, 3, 5, 6 
 Acting Class (Room Acting Class)</t>
   </si>
@@ -204,10 +200,6 @@
     <t>Ivy CHUANG</t>
   </si>
   <si>
-    <t>Warm Up Workshop
-(Room Karen)</t>
-  </si>
-  <si>
     <t>Group 4, 7, 8, 9  Group Activity
 (Room Group Activity)</t>
   </si>
@@ -227,6 +219,14 @@
   </si>
   <si>
     <t>F1 Private Lesson with Karen JONES &amp; pianist</t>
+  </si>
+  <si>
+    <t>Flute MasterClass by Karen JONES
+(Room Karen)</t>
+  </si>
+  <si>
+    <t>Warm Up Workshop by Karen JONES
+(Room Karen)</t>
   </si>
 </sst>
 </file>
@@ -832,35 +832,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -893,7 +884,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,20 +893,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,16 +931,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -946,12 +955,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -960,6 +963,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -974,18 +986,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,6 +1018,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1035,108 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1164,6 +1125,45 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1541,13 +1541,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1561,68 +1561,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1632,8 +1632,8 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
     </row>
@@ -1643,8 +1643,8 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
@@ -1654,8 +1654,8 @@
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
     </row>
@@ -1663,22 +1663,22 @@
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="40" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1688,8 +1688,8 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="43"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
     </row>
@@ -1699,8 +1699,8 @@
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="43"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
     </row>
@@ -1710,8 +1710,8 @@
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="43"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
@@ -1719,68 +1719,68 @@
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1790,8 +1790,8 @@
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
     </row>
@@ -1801,8 +1801,8 @@
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
     </row>
@@ -1812,8 +1812,8 @@
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
     </row>
@@ -1821,22 +1821,22 @@
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="45"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
@@ -1844,9 +1844,9 @@
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1855,9 +1855,9 @@
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
       <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1866,29 +1866,29 @@
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="25" t="s">
+      <c r="D27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
@@ -1896,8 +1896,8 @@
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="26"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
     </row>
@@ -1907,8 +1907,8 @@
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="26"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
     </row>
@@ -1918,8 +1918,8 @@
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="27"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
     </row>
@@ -1934,10 +1934,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="50" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3663,13 +3663,20 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="B15:G18"/>
     <mergeCell ref="B11:B14"/>
@@ -3683,20 +3690,13 @@
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3706,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12509948-6509-2643-8FC6-A2E4F28DBF60}">
   <dimension ref="A1:G457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C22"/>
+    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3720,13 +3720,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3742,68 +3742,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="53" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3811,55 +3811,55 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="44" t="s">
+      <c r="C11" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="40" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3867,101 +3867,101 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="53" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3969,140 +3969,140 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="29" t="s">
+      <c r="D23" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="45"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="49"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="56"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="29" t="s">
+      <c r="D27" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -4119,10 +4119,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="50" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3"/>
@@ -4134,8 +4134,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -4145,8 +4145,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4156,8 +4156,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4167,8 +4167,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -4178,8 +4178,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4189,8 +4189,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -6718,24 +6718,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C32:C38"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="G23:G26"/>
@@ -6752,6 +6734,24 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6761,7 +6761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F03D46-80E3-7747-9FBA-F432C6EEB3CB}">
   <dimension ref="A1:G457"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G6"/>
     </sheetView>
   </sheetViews>
@@ -6775,13 +6775,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1"/>
       <c r="E1"/>
@@ -6803,47 +6803,47 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -6852,19 +6852,19 @@
       <c r="B7" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="60" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6873,22 +6873,22 @@
         <v>0.46875</v>
       </c>
       <c r="B8" s="75"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
       <c r="B9" s="75"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -6896,10 +6896,10 @@
       </c>
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -6908,19 +6908,19 @@
       <c r="B11" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="60" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6929,22 +6929,22 @@
         <v>0.51041666666666696</v>
       </c>
       <c r="B12" s="75"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
       <c r="B13" s="75"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -6952,10 +6952,10 @@
       </c>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -6974,23 +6974,23 @@
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
@@ -7010,19 +7010,19 @@
       <c r="B19" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="60" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7031,22 +7031,22 @@
         <v>0.59375</v>
       </c>
       <c r="B20" s="75"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
       <c r="B21" s="75"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -7054,116 +7054,116 @@
       </c>
       <c r="B22" s="76"/>
       <c r="C22" s="77"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="29" t="s">
+      <c r="D23" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="45"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="49"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="56"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="29" t="s">
+      <c r="D27" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -7180,10 +7180,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="50" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3"/>
@@ -7195,8 +7195,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -7206,8 +7206,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -7217,8 +7217,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -7228,8 +7228,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -7239,8 +7239,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -7250,8 +7250,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -9779,26 +9779,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="G27:G30"/>
@@ -9808,11 +9793,26 @@
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9834,13 +9834,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -9858,68 +9858,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="108" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="110" t="s">
+      <c r="C7" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="84" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9927,55 +9927,55 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="103" t="s">
+      <c r="C11" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="23" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9983,47 +9983,47 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
     </row>
@@ -10031,55 +10031,55 @@
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="96" t="s">
+      <c r="F19" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="96" t="s">
+      <c r="G19" s="84" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10087,140 +10087,140 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="91" t="s">
+      <c r="D23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="91" t="s">
+      <c r="F23" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="94"/>
+      <c r="G23" s="103"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="43"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="43"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="95"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="104"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="91" t="s">
+      <c r="D27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -10237,10 +10237,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="108" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="5"/>
@@ -10252,8 +10252,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="88"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -10263,8 +10263,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="88"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -10274,8 +10274,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="88"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -10285,8 +10285,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="88"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="109"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -10296,8 +10296,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="88"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="109"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -10307,8 +10307,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="89"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -12836,20 +12836,17 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="D23:D26"/>
@@ -12859,17 +12856,20 @@
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12880,7 +12880,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D30"/>
+      <selection activeCell="B19" sqref="B19:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -12892,13 +12892,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -12913,315 +12913,315 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="124" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="126"/>
+      <c r="B7" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="129"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="116"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="129"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="129"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="116"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="116"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="116"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="129"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="116"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="124" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="126"/>
+      <c r="B19" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="127"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="129"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
     </row>
     <row r="22" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="132"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="114" t="s">
+      <c r="D23" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="114" t="s">
+      <c r="F23" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="120"/>
+      <c r="G23" s="129"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="120"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="129"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="120"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="129"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="120"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="129"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="114" t="s">
+      <c r="D27" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="117"/>
-      <c r="G27" s="34"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="34"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="34"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="34"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -13237,10 +13237,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="108" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3"/>
@@ -13251,8 +13251,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="88"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -13261,8 +13261,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="88"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -13271,8 +13271,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="88"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -13281,8 +13281,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="88"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="109"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -13291,8 +13291,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="88"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="109"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -13301,8 +13301,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="89"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -13325,6 +13325,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
     <mergeCell ref="B15:F18"/>
     <mergeCell ref="B7:F14"/>
     <mergeCell ref="B3:F6"/>
@@ -13333,16 +13343,6 @@
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="E23:E26"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13625,7 +13625,7 @@
         <v>0.82291666666665997</v>
       </c>
       <c r="B41" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -13645,7 +13645,7 @@
         <v>0.85416666666665797</v>
       </c>
       <c r="B44" s="135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
